--- a/data/fattened_cattle.xlsx
+++ b/data/fattened_cattle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4721" uniqueCount="4081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="4085">
   <si>
     <t xml:space="preserve">Boi | INDICADOR DO BOI GORDO CEPEA/ESALQ</t>
   </si>
@@ -12264,6 +12264,18 @@
   </si>
   <si>
     <t xml:space="preserve">20/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/06/2025</t>
   </si>
 </sst>
 </file>
@@ -12410,7 +12422,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2361"/>
+  <dimension ref="A1:J2365"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -31330,6 +31342,38 @@
       </c>
       <c r="B2361" s="6" t="s">
         <v>2824</v>
+      </c>
+    </row>
+    <row r="2362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2362" s="6" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B2362" s="6" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="2363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2363" s="6" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B2363" s="6" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="2364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2364" s="6" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B2364" s="6" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="2365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2365" s="6" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B2365" s="6" t="s">
+        <v>2897</v>
       </c>
     </row>
   </sheetData>

--- a/data/fattened_cattle.xlsx
+++ b/data/fattened_cattle.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="4085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="4090">
   <si>
     <t xml:space="preserve">Boi | INDICADOR DO BOI GORDO CEPEA/ESALQ</t>
   </si>
@@ -12276,6 +12276,21 @@
   </si>
   <si>
     <t xml:space="preserve">26/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/07/2025</t>
   </si>
 </sst>
 </file>
@@ -12422,7 +12437,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2365"/>
+  <dimension ref="A1:J2370"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -31374,6 +31389,46 @@
       </c>
       <c r="B2365" s="6" t="s">
         <v>2897</v>
+      </c>
+    </row>
+    <row r="2366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2366" s="6" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2366" s="6" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="2367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2367" s="6" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B2367" s="6" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="2368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2368" s="6" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B2368" s="6" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="2369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2369" s="6" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B2369" s="6" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="2370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2370" s="6" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B2370" s="6" t="s">
+        <v>2598</v>
       </c>
     </row>
   </sheetData>
